--- a/media/archivos_excel/OroFinan_S.A_de_C.V_.xlsx
+++ b/media/archivos_excel/OroFinan_S.A_de_C.V_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edenilson Molina\Downloads\Estados Financieros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA4D5C0-BDBD-4177-A982-14F86DF40B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4CDA63-9C0B-41BD-BDFD-4D95FCBE0CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CUENTAS" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="86">
   <si>
     <t>Codigo</t>
   </si>
@@ -172,9 +172,6 @@
     <t>otros activos</t>
   </si>
   <si>
-    <t>t</t>
-  </si>
-  <si>
     <t>Cuentas por pagar</t>
   </si>
   <si>
@@ -196,9 +193,6 @@
     <t>Intenres minotarios en otras subsidiarios</t>
   </si>
   <si>
-    <t>tp</t>
-  </si>
-  <si>
     <t>Acciones preferentes</t>
   </si>
   <si>
@@ -214,9 +208,6 @@
     <t>Menos acciones tesoreria al costo</t>
   </si>
   <si>
-    <t>tc</t>
-  </si>
-  <si>
     <t>Ingresos por Ventas</t>
   </si>
   <si>
@@ -262,15 +253,9 @@
     <t>Utilidad Neta</t>
   </si>
   <si>
-    <t>ac</t>
-  </si>
-  <si>
     <t>Activo Corriente</t>
   </si>
   <si>
-    <t>anc</t>
-  </si>
-  <si>
     <t>Activo No Corriente</t>
   </si>
   <si>
@@ -280,15 +265,9 @@
     <t>Terrenos, mejoras y arrendamientos</t>
   </si>
   <si>
-    <t>pc</t>
-  </si>
-  <si>
     <t>Pasivo Corriente</t>
   </si>
   <si>
-    <t>pnc</t>
-  </si>
-  <si>
     <t>Pasivo No Corriente</t>
   </si>
   <si>
@@ -299,6 +278,24 @@
   </si>
   <si>
     <t>Total Capital</t>
+  </si>
+  <si>
+    <t>cuenta_total</t>
+  </si>
+  <si>
+    <t>NNG</t>
+  </si>
+  <si>
+    <t>TTACT</t>
+  </si>
+  <si>
+    <t>TTPSV</t>
+  </si>
+  <si>
+    <t>TTCPT</t>
+  </si>
+  <si>
+    <t>VNTST</t>
   </si>
 </sst>
 </file>
@@ -308,7 +305,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -361,7 +358,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="204"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -383,6 +380,17 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Alegreya Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Alegreya Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Alegreya Sans"/>
     </font>
   </fonts>
@@ -407,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -457,19 +465,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -479,6 +487,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1149,636 +1164,3631 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="6"/>
     <col min="2" max="2" width="45.33203125" style="6" customWidth="1"/>
-    <col min="3" max="5" width="19.83203125" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="10.6640625" style="6"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="6" width="19.83203125" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="10.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="20">
+      <c r="C1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="20">
         <v>2023</v>
       </c>
-      <c r="D1" s="20">
+      <c r="E1" s="20">
         <v>2022</v>
       </c>
-      <c r="E1" s="20">
+      <c r="F1" s="20">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>74</v>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
+        <v>111</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="24">
-        <f>SUM(C3:C4,C5,C9)</f>
+        <v>71</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="24">
+        <f>SUM(D3:D4,D5,D9)</f>
         <v>1149100</v>
       </c>
-      <c r="D2" s="24">
-        <f t="shared" ref="D2:E2" si="0">SUM(D3:D4,D5,D9)</f>
+      <c r="E2" s="24">
+        <f t="shared" ref="E2:F2" si="0">SUM(E3:E4,E5,E9)</f>
         <v>1138900</v>
       </c>
-      <c r="E2" s="24">
+      <c r="F2" s="24">
         <f t="shared" si="0"/>
         <v>1128700</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="24">
         <v>34500</v>
       </c>
-      <c r="D3" s="24">
+      <c r="E3" s="24">
         <v>33700</v>
       </c>
-      <c r="E3" s="24">
+      <c r="F3" s="24">
         <v>32900</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="24">
         <v>240100</v>
       </c>
-      <c r="D4" s="24">
+      <c r="E4" s="24">
         <v>237800</v>
       </c>
-      <c r="E4" s="24">
+      <c r="F4" s="24">
         <v>235500</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="24">
-        <f>SUM(C6:C8)</f>
+        <v>73</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="24">
+        <f>SUM(D6:D8)</f>
         <v>848600</v>
       </c>
-      <c r="D5" s="24">
-        <f t="shared" ref="D5:E5" si="1">SUM(D6:D8)</f>
+      <c r="E5" s="24">
+        <f t="shared" ref="E5:F5" si="1">SUM(E6:E8)</f>
         <v>842000</v>
       </c>
-      <c r="E5" s="24">
+      <c r="F5" s="24">
         <f t="shared" si="1"/>
         <v>835400</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="24">
         <v>595200</v>
       </c>
-      <c r="D6" s="24">
+      <c r="E6" s="24">
         <v>590800</v>
       </c>
-      <c r="E6" s="24">
+      <c r="F6" s="24">
         <v>586400</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="24">
         <v>95600</v>
       </c>
-      <c r="D7" s="24">
+      <c r="E7" s="24">
         <v>94900</v>
       </c>
-      <c r="E7" s="24">
+      <c r="F7" s="24">
         <v>94200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="24">
         <v>157800</v>
       </c>
-      <c r="D8" s="24">
+      <c r="E8" s="24">
         <v>156300</v>
       </c>
-      <c r="E8" s="24">
+      <c r="F8" s="24">
         <v>154800</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="24">
         <v>25900</v>
       </c>
-      <c r="D9" s="24">
+      <c r="E9" s="24">
         <v>25400</v>
       </c>
-      <c r="E9" s="24">
+      <c r="F9" s="24">
         <v>24900</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>76</v>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
+        <v>119</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="24">
-        <f>SUM(C11:C17)</f>
+        <v>72</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="24">
+        <f>SUM(D11:D17)</f>
         <v>1492600</v>
       </c>
-      <c r="D10" s="24">
-        <f t="shared" ref="D10:E10" si="2">SUM(D11:D17)</f>
+      <c r="E10" s="24">
+        <f t="shared" ref="E10:F10" si="2">SUM(E11:E17)</f>
         <v>1480000</v>
       </c>
-      <c r="E10" s="24">
+      <c r="F10" s="24">
         <f t="shared" si="2"/>
         <v>1467400</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="24">
+        <v>74</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="24">
         <v>29200</v>
       </c>
-      <c r="D11" s="24">
+      <c r="E11" s="24">
         <v>28600</v>
       </c>
-      <c r="E11" s="24">
+      <c r="F11" s="24">
         <v>28000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="24">
         <v>204900</v>
       </c>
-      <c r="D12" s="24">
+      <c r="E12" s="24">
         <v>203400</v>
       </c>
-      <c r="E12" s="24">
+      <c r="F12" s="24">
         <v>201900</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="24">
         <v>439500</v>
       </c>
-      <c r="D13" s="24">
+      <c r="E13" s="24">
         <v>436800</v>
       </c>
-      <c r="E13" s="24">
+      <c r="F13" s="24">
         <v>434100</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="24">
         <v>10400</v>
       </c>
-      <c r="D14" s="24">
+      <c r="E14" s="24">
         <v>10200</v>
       </c>
-      <c r="E14" s="24">
+      <c r="F14" s="24">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="24">
         <v>325900</v>
       </c>
-      <c r="D15" s="24">
+      <c r="E15" s="24">
         <v>323400</v>
       </c>
-      <c r="E15" s="24">
+      <c r="F15" s="24">
         <v>320900</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="24">
         <v>437300</v>
       </c>
-      <c r="D16" s="24">
+      <c r="E16" s="24">
         <v>432900</v>
       </c>
-      <c r="E16" s="24">
+      <c r="F16" s="24">
         <v>428500</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="24">
         <v>45400</v>
       </c>
-      <c r="D17" s="24">
+      <c r="E17" s="24">
         <v>44700</v>
       </c>
-      <c r="E17" s="24">
+      <c r="F17" s="24">
         <v>44000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
-        <v>44</v>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
+        <v>127</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="25">
-        <f>C10+C2</f>
+        <v>77</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="25">
+        <f>D10+D2</f>
         <v>2641700</v>
       </c>
-      <c r="D18" s="25">
-        <f t="shared" ref="D18:E18" si="3">D10+D2</f>
+      <c r="E18" s="25">
+        <f t="shared" ref="E18:F18" si="3">E10+E2</f>
         <v>2618900</v>
       </c>
-      <c r="E18" s="25">
+      <c r="F18" s="25">
         <f t="shared" si="3"/>
         <v>2596100</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
-        <v>80</v>
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="21">
+        <v>210</v>
       </c>
       <c r="B19" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="24">
-        <f>SUM(C20:C22)</f>
+      <c r="D19" s="24">
+        <f>SUM(D20:D22)</f>
         <v>449000</v>
       </c>
-      <c r="D19" s="24">
-        <f t="shared" ref="D19:E19" si="4">SUM(D20:D22)</f>
+      <c r="E19" s="24">
+        <f t="shared" ref="E19:F19" si="4">SUM(E20:E22)</f>
         <v>444800</v>
       </c>
-      <c r="E19" s="24">
+      <c r="F19" s="24">
         <f t="shared" si="4"/>
         <v>440600</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
-        <v>2</v>
+        <v>211</v>
       </c>
       <c r="B20" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="24">
+        <v>169500</v>
+      </c>
+      <c r="E20" s="24">
+        <v>167900</v>
+      </c>
+      <c r="F20" s="24">
+        <v>166300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="21">
+        <v>212</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="24">
-        <v>169500</v>
-      </c>
-      <c r="D20" s="24">
-        <v>167900</v>
-      </c>
-      <c r="E20" s="24">
-        <v>166300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
-        <v>2</v>
-      </c>
-      <c r="B21" s="23" t="s">
+      <c r="C21" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="24">
+        <v>162300</v>
+      </c>
+      <c r="E21" s="24">
+        <v>160700</v>
+      </c>
+      <c r="F21" s="24">
+        <v>159100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="21">
+        <v>213</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="24">
-        <v>162300</v>
-      </c>
-      <c r="D21" s="24">
-        <v>160700</v>
-      </c>
-      <c r="E21" s="24">
-        <v>159100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
-        <v>2</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="24">
+      <c r="C22" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="24">
         <v>117200</v>
       </c>
-      <c r="D22" s="24">
+      <c r="E22" s="24">
         <v>116200</v>
       </c>
-      <c r="E22" s="24">
+      <c r="F22" s="24">
         <v>115200</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
-        <v>82</v>
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="21">
+        <v>214</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="24">
-        <f>SUM(C24:C27)</f>
+        <v>76</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="24">
+        <f>SUM(D24:D27)</f>
         <v>584800</v>
       </c>
-      <c r="D23" s="24">
-        <f t="shared" ref="D23:E23" si="5">SUM(D24:D27)</f>
+      <c r="E23" s="24">
+        <f t="shared" ref="E23:F23" si="5">SUM(E24:E27)</f>
         <v>581400</v>
       </c>
-      <c r="E23" s="24">
+      <c r="F23" s="24">
         <f t="shared" si="5"/>
         <v>578000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
-        <v>2</v>
+        <v>215</v>
       </c>
       <c r="B24" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="24">
+        <v>8500</v>
+      </c>
+      <c r="E24" s="24">
+        <v>8400</v>
+      </c>
+      <c r="F24" s="24">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="21">
+        <v>216</v>
+      </c>
+      <c r="B25" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="24">
-        <v>8500</v>
-      </c>
-      <c r="D24" s="24">
-        <v>8400</v>
-      </c>
-      <c r="E24" s="24">
-        <v>8300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="21">
-        <v>2</v>
-      </c>
-      <c r="B25" s="23" t="s">
+      <c r="C25" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="24">
+        <v>440900</v>
+      </c>
+      <c r="E25" s="24">
+        <v>439200</v>
+      </c>
+      <c r="F25" s="24">
+        <v>437500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="21">
+        <v>217</v>
+      </c>
+      <c r="B26" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="24">
-        <v>440900</v>
-      </c>
-      <c r="D25" s="24">
-        <v>439200</v>
-      </c>
-      <c r="E25" s="24">
-        <v>437500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="21">
-        <v>2</v>
-      </c>
-      <c r="B26" s="23" t="s">
+      <c r="C26" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="24">
+        <v>24700</v>
+      </c>
+      <c r="E26" s="24">
+        <v>24000</v>
+      </c>
+      <c r="F26" s="24">
+        <v>23300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="21">
+        <v>218</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="24">
-        <v>24700</v>
-      </c>
-      <c r="D26" s="24">
-        <v>24000</v>
-      </c>
-      <c r="E26" s="24">
-        <v>23300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="21">
-        <v>2</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="24">
+      <c r="C27" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="24">
         <v>110700</v>
       </c>
-      <c r="D27" s="24">
+      <c r="E27" s="24">
         <v>109800</v>
       </c>
-      <c r="E27" s="24">
+      <c r="F27" s="24">
         <v>108900</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
-        <v>52</v>
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="21">
+        <v>219</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="25">
-        <f>C19+C23</f>
-        <v>1033800</v>
+        <v>78</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>83</v>
       </c>
       <c r="D28" s="25">
         <f>D19+D23</f>
-        <v>1026200</v>
+        <v>1033800</v>
       </c>
       <c r="E28" s="25">
         <f>E19+E23</f>
+        <v>1026200</v>
+      </c>
+      <c r="F28" s="25">
+        <f>F19+F23</f>
         <v>1018600</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="21">
-        <v>3</v>
+        <v>311</v>
       </c>
       <c r="B29" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="24">
+        <v>78500</v>
+      </c>
+      <c r="E29" s="24">
+        <v>77900</v>
+      </c>
+      <c r="F29" s="24">
+        <v>77300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="21">
+        <v>312</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="24">
+        <v>175900</v>
+      </c>
+      <c r="E30" s="24">
+        <v>174400</v>
+      </c>
+      <c r="F30" s="24">
+        <v>172900</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="21">
+        <v>314</v>
+      </c>
+      <c r="B31" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="24">
-        <v>78500</v>
-      </c>
-      <c r="D29" s="24">
-        <v>77900</v>
-      </c>
-      <c r="E29" s="24">
-        <v>77300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="21">
-        <v>3</v>
-      </c>
-      <c r="B30" s="23" t="s">
+      <c r="C31" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="24">
+        <v>40400</v>
+      </c>
+      <c r="E31" s="24">
+        <v>39800</v>
+      </c>
+      <c r="F31" s="24">
+        <v>39200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="21">
+        <v>315</v>
+      </c>
+      <c r="B32" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="24">
-        <v>175900</v>
-      </c>
-      <c r="D30" s="24">
-        <v>174400</v>
-      </c>
-      <c r="E30" s="24">
-        <v>172900</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="21">
-        <v>3</v>
-      </c>
-      <c r="B31" s="23" t="s">
+      <c r="C32" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="24">
+        <v>763100</v>
+      </c>
+      <c r="E32" s="24">
+        <v>756500</v>
+      </c>
+      <c r="F32" s="24">
+        <v>749900</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="21">
+        <v>316</v>
+      </c>
+      <c r="B33" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="24">
-        <v>40400</v>
-      </c>
-      <c r="D31" s="24">
-        <v>39800</v>
-      </c>
-      <c r="E31" s="24">
-        <v>39200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="21">
-        <v>3</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="24">
-        <v>763100</v>
-      </c>
-      <c r="D32" s="24">
-        <v>756500</v>
-      </c>
-      <c r="E32" s="24">
-        <v>749900</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="21">
-        <v>3</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="24">
+      <c r="C33" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="24">
         <v>98900</v>
       </c>
-      <c r="D33" s="24">
+      <c r="E33" s="24">
         <v>98200</v>
       </c>
-      <c r="E33" s="24">
+      <c r="F33" s="24">
         <v>97500</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
-        <v>58</v>
+    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="21">
+        <v>317</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="25">
-        <f>SUM(C29:C33)</f>
+        <v>79</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="25">
+        <f>SUM(D29:D33)</f>
         <v>1156800</v>
       </c>
-      <c r="D34" s="25">
-        <f t="shared" ref="D34:E34" si="6">SUM(D29:D33)</f>
+      <c r="E34" s="25">
+        <f t="shared" ref="E34:F34" si="6">SUM(E29:E33)</f>
         <v>1146800</v>
       </c>
-      <c r="E34" s="25">
+      <c r="F34" s="25">
         <f t="shared" si="6"/>
         <v>1136800</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="26"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="6"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="26"/>
+      <c r="F36" s="26"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="6"/>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C38" s="26"/>
+      <c r="F37" s="26"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="6"/>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="6"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="6"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="6"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="6"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="6"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="6"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="6"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="6"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="6"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="6"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="6"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="6"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="6"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="6"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="6"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="6"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="6"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="6"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="6"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="6"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="6"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="6"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="6"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="6"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="6"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="6"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="6"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="6"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="6"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="6"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="6"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="6"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="6"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="6"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="6"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="6"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="6"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="6"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="6"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="6"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="6"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="6"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="6"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="6"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="6"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="6"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="6"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="6"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="6"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="6"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="6"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="6"/>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="6"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="6"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="6"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="6"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="6"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="6"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="6"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="6"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="6"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="6"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" s="6"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" s="6"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="6"/>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="6"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="6"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="6"/>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" s="6"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="6"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="6"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="6"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="6"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="6"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="6"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="6"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="6"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="6"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="6"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="6"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="6"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="6"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="6"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="6"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="6"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="6"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="6"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="6"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="6"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="6"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="6"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="6"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="6"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="6"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="6"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="6"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="6"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="6"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="6"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="6"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="6"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="6"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="6"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="6"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="6"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="6"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="6"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="6"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="6"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="6"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="6"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="6"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="6"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="6"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="6"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="6"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="6"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="6"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="6"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="6"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="6"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="6"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="6"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="6"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="6"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="6"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="6"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="6"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="6"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="6"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="6"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="6"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" s="6"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="6"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" s="6"/>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C194" s="6"/>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C195" s="6"/>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C196" s="6"/>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C197" s="6"/>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C198" s="6"/>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C199" s="6"/>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C200" s="6"/>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C201" s="6"/>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C202" s="6"/>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C203" s="6"/>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C204" s="6"/>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C205" s="6"/>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C206" s="6"/>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C207" s="6"/>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C208" s="6"/>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C209" s="6"/>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C210" s="6"/>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C211" s="6"/>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C212" s="6"/>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C213" s="6"/>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C214" s="6"/>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C215" s="6"/>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C216" s="6"/>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C217" s="6"/>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C218" s="6"/>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C219" s="6"/>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C220" s="6"/>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C221" s="6"/>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C222" s="6"/>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C223" s="6"/>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C224" s="6"/>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C225" s="6"/>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C226" s="6"/>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C227" s="6"/>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C228" s="6"/>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C229" s="6"/>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C230" s="6"/>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C231" s="6"/>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C232" s="6"/>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C233" s="6"/>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C234" s="6"/>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C235" s="6"/>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C236" s="6"/>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C237" s="6"/>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C238" s="6"/>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C239" s="6"/>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C240" s="6"/>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C241" s="6"/>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C242" s="6"/>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C243" s="6"/>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C244" s="6"/>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C245" s="6"/>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C246" s="6"/>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C247" s="6"/>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C248" s="6"/>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C249" s="6"/>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C250" s="6"/>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C251" s="6"/>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C252" s="6"/>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C253" s="6"/>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C254" s="6"/>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C255" s="6"/>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C256" s="6"/>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C257" s="6"/>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C258" s="6"/>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C259" s="6"/>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C260" s="6"/>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C261" s="6"/>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C262" s="6"/>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C263" s="6"/>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C264" s="6"/>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C265" s="6"/>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C266" s="6"/>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C267" s="6"/>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C268" s="6"/>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C269" s="6"/>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C270" s="6"/>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C271" s="6"/>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C272" s="6"/>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C273" s="6"/>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C274" s="6"/>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C275" s="6"/>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C276" s="6"/>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C277" s="6"/>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C278" s="6"/>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C279" s="6"/>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C280" s="6"/>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C281" s="6"/>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C282" s="6"/>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C283" s="6"/>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C284" s="6"/>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C285" s="6"/>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C286" s="6"/>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C287" s="6"/>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C288" s="6"/>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C289" s="6"/>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C290" s="6"/>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C291" s="6"/>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C292" s="6"/>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C293" s="6"/>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C294" s="6"/>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C295" s="6"/>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C296" s="6"/>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C297" s="6"/>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C298" s="6"/>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C299" s="6"/>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C300" s="6"/>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C301" s="6"/>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C302" s="6"/>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C303" s="6"/>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C304" s="6"/>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C305" s="6"/>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C306" s="6"/>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C307" s="6"/>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C308" s="6"/>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C309" s="6"/>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C310" s="6"/>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C311" s="6"/>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C312" s="6"/>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C313" s="6"/>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C314" s="6"/>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C315" s="6"/>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C316" s="6"/>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C317" s="6"/>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C318" s="6"/>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C319" s="6"/>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C320" s="6"/>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C321" s="6"/>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C322" s="6"/>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C323" s="6"/>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C324" s="6"/>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C325" s="6"/>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C326" s="6"/>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C327" s="6"/>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C328" s="6"/>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C329" s="6"/>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C330" s="6"/>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C331" s="6"/>
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C332" s="6"/>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C333" s="6"/>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C334" s="6"/>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C335" s="6"/>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C336" s="6"/>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C337" s="6"/>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C338" s="6"/>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C339" s="6"/>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C340" s="6"/>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C341" s="6"/>
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C342" s="6"/>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C343" s="6"/>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C344" s="6"/>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C345" s="6"/>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C346" s="6"/>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C347" s="6"/>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C348" s="6"/>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C349" s="6"/>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C350" s="6"/>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C351" s="6"/>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C352" s="6"/>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C353" s="6"/>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C354" s="6"/>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C355" s="6"/>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C356" s="6"/>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C357" s="6"/>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C358" s="6"/>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C359" s="6"/>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C360" s="6"/>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C361" s="6"/>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C362" s="6"/>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C363" s="6"/>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C364" s="6"/>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C365" s="6"/>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C366" s="6"/>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C367" s="6"/>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C368" s="6"/>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C369" s="6"/>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C370" s="6"/>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C371" s="6"/>
+    </row>
+    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C372" s="6"/>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C373" s="6"/>
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C374" s="6"/>
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C375" s="6"/>
+    </row>
+    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C376" s="6"/>
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C377" s="6"/>
+    </row>
+    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C378" s="6"/>
+    </row>
+    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C379" s="6"/>
+    </row>
+    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C380" s="6"/>
+    </row>
+    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C381" s="6"/>
+    </row>
+    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C382" s="6"/>
+    </row>
+    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C383" s="6"/>
+    </row>
+    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C384" s="6"/>
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C385" s="6"/>
+    </row>
+    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C386" s="6"/>
+    </row>
+    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C387" s="6"/>
+    </row>
+    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C388" s="6"/>
+    </row>
+    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C389" s="6"/>
+    </row>
+    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C390" s="6"/>
+    </row>
+    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C391" s="6"/>
+    </row>
+    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C392" s="6"/>
+    </row>
+    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C393" s="6"/>
+    </row>
+    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C394" s="6"/>
+    </row>
+    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C395" s="6"/>
+    </row>
+    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C396" s="6"/>
+    </row>
+    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C397" s="6"/>
+    </row>
+    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C398" s="6"/>
+    </row>
+    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C399" s="6"/>
+    </row>
+    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C400" s="6"/>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C401" s="6"/>
+    </row>
+    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C402" s="6"/>
+    </row>
+    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C403" s="6"/>
+    </row>
+    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C404" s="6"/>
+    </row>
+    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C405" s="6"/>
+    </row>
+    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C406" s="6"/>
+    </row>
+    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C407" s="6"/>
+    </row>
+    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C408" s="6"/>
+    </row>
+    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C409" s="6"/>
+    </row>
+    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C410" s="6"/>
+    </row>
+    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C411" s="6"/>
+    </row>
+    <row r="412" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C412" s="6"/>
+    </row>
+    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C413" s="6"/>
+    </row>
+    <row r="414" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C414" s="6"/>
+    </row>
+    <row r="415" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C415" s="6"/>
+    </row>
+    <row r="416" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C416" s="6"/>
+    </row>
+    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C417" s="6"/>
+    </row>
+    <row r="418" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C418" s="6"/>
+    </row>
+    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C419" s="6"/>
+    </row>
+    <row r="420" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C420" s="6"/>
+    </row>
+    <row r="421" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C421" s="6"/>
+    </row>
+    <row r="422" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C422" s="6"/>
+    </row>
+    <row r="423" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C423" s="6"/>
+    </row>
+    <row r="424" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C424" s="6"/>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C425" s="6"/>
+    </row>
+    <row r="426" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C426" s="6"/>
+    </row>
+    <row r="427" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C427" s="6"/>
+    </row>
+    <row r="428" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C428" s="6"/>
+    </row>
+    <row r="429" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C429" s="6"/>
+    </row>
+    <row r="430" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C430" s="6"/>
+    </row>
+    <row r="431" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C431" s="6"/>
+    </row>
+    <row r="432" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C432" s="6"/>
+    </row>
+    <row r="433" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C433" s="6"/>
+    </row>
+    <row r="434" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C434" s="6"/>
+    </row>
+    <row r="435" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C435" s="6"/>
+    </row>
+    <row r="436" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C436" s="6"/>
+    </row>
+    <row r="437" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C437" s="6"/>
+    </row>
+    <row r="438" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C438" s="6"/>
+    </row>
+    <row r="439" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C439" s="6"/>
+    </row>
+    <row r="440" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C440" s="6"/>
+    </row>
+    <row r="441" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C441" s="6"/>
+    </row>
+    <row r="442" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C442" s="6"/>
+    </row>
+    <row r="443" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C443" s="6"/>
+    </row>
+    <row r="444" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C444" s="6"/>
+    </row>
+    <row r="445" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C445" s="6"/>
+    </row>
+    <row r="446" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C446" s="6"/>
+    </row>
+    <row r="447" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C447" s="6"/>
+    </row>
+    <row r="448" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C448" s="6"/>
+    </row>
+    <row r="449" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C449" s="6"/>
+    </row>
+    <row r="450" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C450" s="6"/>
+    </row>
+    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C451" s="6"/>
+    </row>
+    <row r="452" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C452" s="6"/>
+    </row>
+    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C453" s="6"/>
+    </row>
+    <row r="454" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C454" s="6"/>
+    </row>
+    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C455" s="6"/>
+    </row>
+    <row r="456" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C456" s="6"/>
+    </row>
+    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C457" s="6"/>
+    </row>
+    <row r="458" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C458" s="6"/>
+    </row>
+    <row r="459" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C459" s="6"/>
+    </row>
+    <row r="460" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C460" s="6"/>
+    </row>
+    <row r="461" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C461" s="6"/>
+    </row>
+    <row r="462" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C462" s="6"/>
+    </row>
+    <row r="463" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C463" s="6"/>
+    </row>
+    <row r="464" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C464" s="6"/>
+    </row>
+    <row r="465" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C465" s="6"/>
+    </row>
+    <row r="466" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C466" s="6"/>
+    </row>
+    <row r="467" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C467" s="6"/>
+    </row>
+    <row r="468" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C468" s="6"/>
+    </row>
+    <row r="469" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C469" s="6"/>
+    </row>
+    <row r="470" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C470" s="6"/>
+    </row>
+    <row r="471" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C471" s="6"/>
+    </row>
+    <row r="472" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C472" s="6"/>
+    </row>
+    <row r="473" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C473" s="6"/>
+    </row>
+    <row r="474" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C474" s="6"/>
+    </row>
+    <row r="475" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C475" s="6"/>
+    </row>
+    <row r="476" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C476" s="6"/>
+    </row>
+    <row r="477" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C477" s="6"/>
+    </row>
+    <row r="478" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C478" s="6"/>
+    </row>
+    <row r="479" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C479" s="6"/>
+    </row>
+    <row r="480" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C480" s="6"/>
+    </row>
+    <row r="481" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C481" s="6"/>
+    </row>
+    <row r="482" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C482" s="6"/>
+    </row>
+    <row r="483" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C483" s="6"/>
+    </row>
+    <row r="484" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C484" s="6"/>
+    </row>
+    <row r="485" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C485" s="6"/>
+    </row>
+    <row r="486" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C486" s="6"/>
+    </row>
+    <row r="487" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C487" s="6"/>
+    </row>
+    <row r="488" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C488" s="6"/>
+    </row>
+    <row r="489" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C489" s="6"/>
+    </row>
+    <row r="490" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C490" s="6"/>
+    </row>
+    <row r="491" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C491" s="6"/>
+    </row>
+    <row r="492" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C492" s="6"/>
+    </row>
+    <row r="493" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C493" s="6"/>
+    </row>
+    <row r="494" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C494" s="6"/>
+    </row>
+    <row r="495" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C495" s="6"/>
+    </row>
+    <row r="496" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C496" s="6"/>
+    </row>
+    <row r="497" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C497" s="6"/>
+    </row>
+    <row r="498" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C498" s="6"/>
+    </row>
+    <row r="499" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C499" s="6"/>
+    </row>
+    <row r="500" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C500" s="6"/>
+    </row>
+    <row r="501" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C501" s="6"/>
+    </row>
+    <row r="502" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C502" s="6"/>
+    </row>
+    <row r="503" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C503" s="6"/>
+    </row>
+    <row r="504" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C504" s="6"/>
+    </row>
+    <row r="505" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C505" s="6"/>
+    </row>
+    <row r="506" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C506" s="6"/>
+    </row>
+    <row r="507" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C507" s="6"/>
+    </row>
+    <row r="508" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C508" s="6"/>
+    </row>
+    <row r="509" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C509" s="6"/>
+    </row>
+    <row r="510" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C510" s="6"/>
+    </row>
+    <row r="511" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C511" s="6"/>
+    </row>
+    <row r="512" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C512" s="6"/>
+    </row>
+    <row r="513" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C513" s="6"/>
+    </row>
+    <row r="514" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C514" s="6"/>
+    </row>
+    <row r="515" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C515" s="6"/>
+    </row>
+    <row r="516" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C516" s="6"/>
+    </row>
+    <row r="517" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C517" s="6"/>
+    </row>
+    <row r="518" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C518" s="6"/>
+    </row>
+    <row r="519" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C519" s="6"/>
+    </row>
+    <row r="520" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C520" s="6"/>
+    </row>
+    <row r="521" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C521" s="6"/>
+    </row>
+    <row r="522" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C522" s="6"/>
+    </row>
+    <row r="523" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C523" s="6"/>
+    </row>
+    <row r="524" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C524" s="6"/>
+    </row>
+    <row r="525" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C525" s="6"/>
+    </row>
+    <row r="526" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C526" s="6"/>
+    </row>
+    <row r="527" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C527" s="6"/>
+    </row>
+    <row r="528" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C528" s="6"/>
+    </row>
+    <row r="529" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C529" s="6"/>
+    </row>
+    <row r="530" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C530" s="6"/>
+    </row>
+    <row r="531" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C531" s="6"/>
+    </row>
+    <row r="532" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C532" s="6"/>
+    </row>
+    <row r="533" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C533" s="6"/>
+    </row>
+    <row r="534" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C534" s="6"/>
+    </row>
+    <row r="535" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C535" s="6"/>
+    </row>
+    <row r="536" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C536" s="6"/>
+    </row>
+    <row r="537" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C537" s="6"/>
+    </row>
+    <row r="538" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C538" s="6"/>
+    </row>
+    <row r="539" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C539" s="6"/>
+    </row>
+    <row r="540" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C540" s="6"/>
+    </row>
+    <row r="541" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C541" s="6"/>
+    </row>
+    <row r="542" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C542" s="6"/>
+    </row>
+    <row r="543" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C543" s="6"/>
+    </row>
+    <row r="544" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C544" s="6"/>
+    </row>
+    <row r="545" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C545" s="6"/>
+    </row>
+    <row r="546" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C546" s="6"/>
+    </row>
+    <row r="547" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C547" s="6"/>
+    </row>
+    <row r="548" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C548" s="6"/>
+    </row>
+    <row r="549" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C549" s="6"/>
+    </row>
+    <row r="550" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C550" s="6"/>
+    </row>
+    <row r="551" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C551" s="6"/>
+    </row>
+    <row r="552" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C552" s="6"/>
+    </row>
+    <row r="553" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C553" s="6"/>
+    </row>
+    <row r="554" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C554" s="6"/>
+    </row>
+    <row r="555" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C555" s="6"/>
+    </row>
+    <row r="556" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C556" s="6"/>
+    </row>
+    <row r="557" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C557" s="6"/>
+    </row>
+    <row r="558" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C558" s="6"/>
+    </row>
+    <row r="559" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C559" s="6"/>
+    </row>
+    <row r="560" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C560" s="6"/>
+    </row>
+    <row r="561" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C561" s="6"/>
+    </row>
+    <row r="562" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C562" s="6"/>
+    </row>
+    <row r="563" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C563" s="6"/>
+    </row>
+    <row r="564" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C564" s="6"/>
+    </row>
+    <row r="565" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C565" s="6"/>
+    </row>
+    <row r="566" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C566" s="6"/>
+    </row>
+    <row r="567" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C567" s="6"/>
+    </row>
+    <row r="568" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C568" s="6"/>
+    </row>
+    <row r="569" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C569" s="6"/>
+    </row>
+    <row r="570" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C570" s="6"/>
+    </row>
+    <row r="571" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C571" s="6"/>
+    </row>
+    <row r="572" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C572" s="6"/>
+    </row>
+    <row r="573" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C573" s="6"/>
+    </row>
+    <row r="574" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C574" s="6"/>
+    </row>
+    <row r="575" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C575" s="6"/>
+    </row>
+    <row r="576" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C576" s="6"/>
+    </row>
+    <row r="577" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C577" s="6"/>
+    </row>
+    <row r="578" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C578" s="6"/>
+    </row>
+    <row r="579" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C579" s="6"/>
+    </row>
+    <row r="580" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C580" s="6"/>
+    </row>
+    <row r="581" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C581" s="6"/>
+    </row>
+    <row r="582" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C582" s="6"/>
+    </row>
+    <row r="583" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C583" s="6"/>
+    </row>
+    <row r="584" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C584" s="6"/>
+    </row>
+    <row r="585" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C585" s="6"/>
+    </row>
+    <row r="586" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C586" s="6"/>
+    </row>
+    <row r="587" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C587" s="6"/>
+    </row>
+    <row r="588" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C588" s="6"/>
+    </row>
+    <row r="589" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C589" s="6"/>
+    </row>
+    <row r="590" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C590" s="6"/>
+    </row>
+    <row r="591" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C591" s="6"/>
+    </row>
+    <row r="592" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C592" s="6"/>
+    </row>
+    <row r="593" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C593" s="6"/>
+    </row>
+    <row r="594" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C594" s="6"/>
+    </row>
+    <row r="595" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C595" s="6"/>
+    </row>
+    <row r="596" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C596" s="6"/>
+    </row>
+    <row r="597" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C597" s="6"/>
+    </row>
+    <row r="598" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C598" s="6"/>
+    </row>
+    <row r="599" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C599" s="6"/>
+    </row>
+    <row r="600" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C600" s="6"/>
+    </row>
+    <row r="601" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C601" s="6"/>
+    </row>
+    <row r="602" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C602" s="6"/>
+    </row>
+    <row r="603" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C603" s="6"/>
+    </row>
+    <row r="604" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C604" s="6"/>
+    </row>
+    <row r="605" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C605" s="6"/>
+    </row>
+    <row r="606" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C606" s="6"/>
+    </row>
+    <row r="607" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C607" s="6"/>
+    </row>
+    <row r="608" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C608" s="6"/>
+    </row>
+    <row r="609" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C609" s="6"/>
+    </row>
+    <row r="610" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C610" s="6"/>
+    </row>
+    <row r="611" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C611" s="6"/>
+    </row>
+    <row r="612" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C612" s="6"/>
+    </row>
+    <row r="613" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C613" s="6"/>
+    </row>
+    <row r="614" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C614" s="6"/>
+    </row>
+    <row r="615" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C615" s="6"/>
+    </row>
+    <row r="616" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C616" s="6"/>
+    </row>
+    <row r="617" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C617" s="6"/>
+    </row>
+    <row r="618" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C618" s="6"/>
+    </row>
+    <row r="619" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C619" s="6"/>
+    </row>
+    <row r="620" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C620" s="6"/>
+    </row>
+    <row r="621" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C621" s="6"/>
+    </row>
+    <row r="622" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C622" s="6"/>
+    </row>
+    <row r="623" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C623" s="6"/>
+    </row>
+    <row r="624" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C624" s="6"/>
+    </row>
+    <row r="625" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C625" s="6"/>
+    </row>
+    <row r="626" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C626" s="6"/>
+    </row>
+    <row r="627" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C627" s="6"/>
+    </row>
+    <row r="628" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C628" s="6"/>
+    </row>
+    <row r="629" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C629" s="6"/>
+    </row>
+    <row r="630" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C630" s="6"/>
+    </row>
+    <row r="631" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C631" s="6"/>
+    </row>
+    <row r="632" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C632" s="6"/>
+    </row>
+    <row r="633" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C633" s="6"/>
+    </row>
+    <row r="634" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C634" s="6"/>
+    </row>
+    <row r="635" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C635" s="6"/>
+    </row>
+    <row r="636" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C636" s="6"/>
+    </row>
+    <row r="637" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C637" s="6"/>
+    </row>
+    <row r="638" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C638" s="6"/>
+    </row>
+    <row r="639" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C639" s="6"/>
+    </row>
+    <row r="640" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C640" s="6"/>
+    </row>
+    <row r="641" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C641" s="6"/>
+    </row>
+    <row r="642" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C642" s="6"/>
+    </row>
+    <row r="643" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C643" s="6"/>
+    </row>
+    <row r="644" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C644" s="6"/>
+    </row>
+    <row r="645" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C645" s="6"/>
+    </row>
+    <row r="646" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C646" s="6"/>
+    </row>
+    <row r="647" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C647" s="6"/>
+    </row>
+    <row r="648" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C648" s="6"/>
+    </row>
+    <row r="649" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C649" s="6"/>
+    </row>
+    <row r="650" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C650" s="6"/>
+    </row>
+    <row r="651" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C651" s="6"/>
+    </row>
+    <row r="652" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C652" s="6"/>
+    </row>
+    <row r="653" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C653" s="6"/>
+    </row>
+    <row r="654" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C654" s="6"/>
+    </row>
+    <row r="655" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C655" s="6"/>
+    </row>
+    <row r="656" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C656" s="6"/>
+    </row>
+    <row r="657" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C657" s="6"/>
+    </row>
+    <row r="658" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C658" s="6"/>
+    </row>
+    <row r="659" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C659" s="6"/>
+    </row>
+    <row r="660" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C660" s="6"/>
+    </row>
+    <row r="661" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C661" s="6"/>
+    </row>
+    <row r="662" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C662" s="6"/>
+    </row>
+    <row r="663" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C663" s="6"/>
+    </row>
+    <row r="664" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C664" s="6"/>
+    </row>
+    <row r="665" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C665" s="6"/>
+    </row>
+    <row r="666" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C666" s="6"/>
+    </row>
+    <row r="667" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C667" s="6"/>
+    </row>
+    <row r="668" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C668" s="6"/>
+    </row>
+    <row r="669" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C669" s="6"/>
+    </row>
+    <row r="670" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C670" s="6"/>
+    </row>
+    <row r="671" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C671" s="6"/>
+    </row>
+    <row r="672" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C672" s="6"/>
+    </row>
+    <row r="673" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C673" s="6"/>
+    </row>
+    <row r="674" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C674" s="6"/>
+    </row>
+    <row r="675" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C675" s="6"/>
+    </row>
+    <row r="676" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C676" s="6"/>
+    </row>
+    <row r="677" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C677" s="6"/>
+    </row>
+    <row r="678" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C678" s="6"/>
+    </row>
+    <row r="679" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C679" s="6"/>
+    </row>
+    <row r="680" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C680" s="6"/>
+    </row>
+    <row r="681" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C681" s="6"/>
+    </row>
+    <row r="682" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C682" s="6"/>
+    </row>
+    <row r="683" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C683" s="6"/>
+    </row>
+    <row r="684" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C684" s="6"/>
+    </row>
+    <row r="685" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C685" s="6"/>
+    </row>
+    <row r="686" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C686" s="6"/>
+    </row>
+    <row r="687" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C687" s="6"/>
+    </row>
+    <row r="688" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C688" s="6"/>
+    </row>
+    <row r="689" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C689" s="6"/>
+    </row>
+    <row r="690" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C690" s="6"/>
+    </row>
+    <row r="691" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C691" s="6"/>
+    </row>
+    <row r="692" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C692" s="6"/>
+    </row>
+    <row r="693" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C693" s="6"/>
+    </row>
+    <row r="694" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C694" s="6"/>
+    </row>
+    <row r="695" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C695" s="6"/>
+    </row>
+    <row r="696" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C696" s="6"/>
+    </row>
+    <row r="697" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C697" s="6"/>
+    </row>
+    <row r="698" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C698" s="6"/>
+    </row>
+    <row r="699" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C699" s="6"/>
+    </row>
+    <row r="700" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C700" s="6"/>
+    </row>
+    <row r="701" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C701" s="6"/>
+    </row>
+    <row r="702" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C702" s="6"/>
+    </row>
+    <row r="703" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C703" s="6"/>
+    </row>
+    <row r="704" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C704" s="6"/>
+    </row>
+    <row r="705" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C705" s="6"/>
+    </row>
+    <row r="706" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C706" s="6"/>
+    </row>
+    <row r="707" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C707" s="6"/>
+    </row>
+    <row r="708" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C708" s="6"/>
+    </row>
+    <row r="709" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C709" s="6"/>
+    </row>
+    <row r="710" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C710" s="6"/>
+    </row>
+    <row r="711" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C711" s="6"/>
+    </row>
+    <row r="712" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C712" s="6"/>
+    </row>
+    <row r="713" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C713" s="6"/>
+    </row>
+    <row r="714" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C714" s="6"/>
+    </row>
+    <row r="715" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C715" s="6"/>
+    </row>
+    <row r="716" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C716" s="6"/>
+    </row>
+    <row r="717" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C717" s="6"/>
+    </row>
+    <row r="718" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C718" s="6"/>
+    </row>
+    <row r="719" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C719" s="6"/>
+    </row>
+    <row r="720" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C720" s="6"/>
+    </row>
+    <row r="721" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C721" s="6"/>
+    </row>
+    <row r="722" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C722" s="6"/>
+    </row>
+    <row r="723" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C723" s="6"/>
+    </row>
+    <row r="724" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C724" s="6"/>
+    </row>
+    <row r="725" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C725" s="6"/>
+    </row>
+    <row r="726" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C726" s="6"/>
+    </row>
+    <row r="727" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C727" s="6"/>
+    </row>
+    <row r="728" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C728" s="6"/>
+    </row>
+    <row r="729" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C729" s="6"/>
+    </row>
+    <row r="730" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C730" s="6"/>
+    </row>
+    <row r="731" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C731" s="6"/>
+    </row>
+    <row r="732" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C732" s="6"/>
+    </row>
+    <row r="733" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C733" s="6"/>
+    </row>
+    <row r="734" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C734" s="6"/>
+    </row>
+    <row r="735" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C735" s="6"/>
+    </row>
+    <row r="736" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C736" s="6"/>
+    </row>
+    <row r="737" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C737" s="6"/>
+    </row>
+    <row r="738" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C738" s="6"/>
+    </row>
+    <row r="739" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C739" s="6"/>
+    </row>
+    <row r="740" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C740" s="6"/>
+    </row>
+    <row r="741" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C741" s="6"/>
+    </row>
+    <row r="742" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C742" s="6"/>
+    </row>
+    <row r="743" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C743" s="6"/>
+    </row>
+    <row r="744" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C744" s="6"/>
+    </row>
+    <row r="745" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C745" s="6"/>
+    </row>
+    <row r="746" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C746" s="6"/>
+    </row>
+    <row r="747" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C747" s="6"/>
+    </row>
+    <row r="748" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C748" s="6"/>
+    </row>
+    <row r="749" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C749" s="6"/>
+    </row>
+    <row r="750" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C750" s="6"/>
+    </row>
+    <row r="751" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C751" s="6"/>
+    </row>
+    <row r="752" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C752" s="6"/>
+    </row>
+    <row r="753" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C753" s="6"/>
+    </row>
+    <row r="754" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C754" s="6"/>
+    </row>
+    <row r="755" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C755" s="6"/>
+    </row>
+    <row r="756" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C756" s="6"/>
+    </row>
+    <row r="757" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C757" s="6"/>
+    </row>
+    <row r="758" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C758" s="6"/>
+    </row>
+    <row r="759" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C759" s="6"/>
+    </row>
+    <row r="760" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C760" s="6"/>
+    </row>
+    <row r="761" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C761" s="6"/>
+    </row>
+    <row r="762" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C762" s="6"/>
+    </row>
+    <row r="763" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C763" s="6"/>
+    </row>
+    <row r="764" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C764" s="6"/>
+    </row>
+    <row r="765" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C765" s="6"/>
+    </row>
+    <row r="766" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C766" s="6"/>
+    </row>
+    <row r="767" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C767" s="6"/>
+    </row>
+    <row r="768" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C768" s="6"/>
+    </row>
+    <row r="769" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C769" s="6"/>
+    </row>
+    <row r="770" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C770" s="6"/>
+    </row>
+    <row r="771" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C771" s="6"/>
+    </row>
+    <row r="772" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C772" s="6"/>
+    </row>
+    <row r="773" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C773" s="6"/>
+    </row>
+    <row r="774" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C774" s="6"/>
+    </row>
+    <row r="775" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C775" s="6"/>
+    </row>
+    <row r="776" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C776" s="6"/>
+    </row>
+    <row r="777" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C777" s="6"/>
+    </row>
+    <row r="778" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C778" s="6"/>
+    </row>
+    <row r="779" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C779" s="6"/>
+    </row>
+    <row r="780" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C780" s="6"/>
+    </row>
+    <row r="781" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C781" s="6"/>
+    </row>
+    <row r="782" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C782" s="6"/>
+    </row>
+    <row r="783" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C783" s="6"/>
+    </row>
+    <row r="784" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C784" s="6"/>
+    </row>
+    <row r="785" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C785" s="6"/>
+    </row>
+    <row r="786" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C786" s="6"/>
+    </row>
+    <row r="787" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C787" s="6"/>
+    </row>
+    <row r="788" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C788" s="6"/>
+    </row>
+    <row r="789" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C789" s="6"/>
+    </row>
+    <row r="790" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C790" s="6"/>
+    </row>
+    <row r="791" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C791" s="6"/>
+    </row>
+    <row r="792" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C792" s="6"/>
+    </row>
+    <row r="793" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C793" s="6"/>
+    </row>
+    <row r="794" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C794" s="6"/>
+    </row>
+    <row r="795" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C795" s="6"/>
+    </row>
+    <row r="796" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C796" s="6"/>
+    </row>
+    <row r="797" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C797" s="6"/>
+    </row>
+    <row r="798" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C798" s="6"/>
+    </row>
+    <row r="799" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C799" s="6"/>
+    </row>
+    <row r="800" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C800" s="6"/>
+    </row>
+    <row r="801" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C801" s="6"/>
+    </row>
+    <row r="802" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C802" s="6"/>
+    </row>
+    <row r="803" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C803" s="6"/>
+    </row>
+    <row r="804" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C804" s="6"/>
+    </row>
+    <row r="805" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C805" s="6"/>
+    </row>
+    <row r="806" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C806" s="6"/>
+    </row>
+    <row r="807" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C807" s="6"/>
+    </row>
+    <row r="808" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C808" s="6"/>
+    </row>
+    <row r="809" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C809" s="6"/>
+    </row>
+    <row r="810" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C810" s="6"/>
+    </row>
+    <row r="811" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C811" s="6"/>
+    </row>
+    <row r="812" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C812" s="6"/>
+    </row>
+    <row r="813" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C813" s="6"/>
+    </row>
+    <row r="814" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C814" s="6"/>
+    </row>
+    <row r="815" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C815" s="6"/>
+    </row>
+    <row r="816" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C816" s="6"/>
+    </row>
+    <row r="817" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C817" s="6"/>
+    </row>
+    <row r="818" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C818" s="6"/>
+    </row>
+    <row r="819" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C819" s="6"/>
+    </row>
+    <row r="820" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C820" s="6"/>
+    </row>
+    <row r="821" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C821" s="6"/>
+    </row>
+    <row r="822" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C822" s="6"/>
+    </row>
+    <row r="823" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C823" s="6"/>
+    </row>
+    <row r="824" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C824" s="6"/>
+    </row>
+    <row r="825" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C825" s="6"/>
+    </row>
+    <row r="826" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C826" s="6"/>
+    </row>
+    <row r="827" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C827" s="6"/>
+    </row>
+    <row r="828" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C828" s="6"/>
+    </row>
+    <row r="829" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C829" s="6"/>
+    </row>
+    <row r="830" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C830" s="6"/>
+    </row>
+    <row r="831" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C831" s="6"/>
+    </row>
+    <row r="832" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C832" s="6"/>
+    </row>
+    <row r="833" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C833" s="6"/>
+    </row>
+    <row r="834" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C834" s="6"/>
+    </row>
+    <row r="835" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C835" s="6"/>
+    </row>
+    <row r="836" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C836" s="6"/>
+    </row>
+    <row r="837" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C837" s="6"/>
+    </row>
+    <row r="838" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C838" s="6"/>
+    </row>
+    <row r="839" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C839" s="6"/>
+    </row>
+    <row r="840" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C840" s="6"/>
+    </row>
+    <row r="841" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C841" s="6"/>
+    </row>
+    <row r="842" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C842" s="6"/>
+    </row>
+    <row r="843" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C843" s="6"/>
+    </row>
+    <row r="844" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C844" s="6"/>
+    </row>
+    <row r="845" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C845" s="6"/>
+    </row>
+    <row r="846" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C846" s="6"/>
+    </row>
+    <row r="847" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C847" s="6"/>
+    </row>
+    <row r="848" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C848" s="6"/>
+    </row>
+    <row r="849" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C849" s="6"/>
+    </row>
+    <row r="850" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C850" s="6"/>
+    </row>
+    <row r="851" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C851" s="6"/>
+    </row>
+    <row r="852" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C852" s="6"/>
+    </row>
+    <row r="853" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C853" s="6"/>
+    </row>
+    <row r="854" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C854" s="6"/>
+    </row>
+    <row r="855" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C855" s="6"/>
+    </row>
+    <row r="856" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C856" s="6"/>
+    </row>
+    <row r="857" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C857" s="6"/>
+    </row>
+    <row r="858" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C858" s="6"/>
+    </row>
+    <row r="859" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C859" s="6"/>
+    </row>
+    <row r="860" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C860" s="6"/>
+    </row>
+    <row r="861" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C861" s="6"/>
+    </row>
+    <row r="862" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C862" s="6"/>
+    </row>
+    <row r="863" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C863" s="6"/>
+    </row>
+    <row r="864" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C864" s="6"/>
+    </row>
+    <row r="865" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C865" s="6"/>
+    </row>
+    <row r="866" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C866" s="6"/>
+    </row>
+    <row r="867" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C867" s="6"/>
+    </row>
+    <row r="868" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C868" s="6"/>
+    </row>
+    <row r="869" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C869" s="6"/>
+    </row>
+    <row r="870" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C870" s="6"/>
+    </row>
+    <row r="871" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C871" s="6"/>
+    </row>
+    <row r="872" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C872" s="6"/>
+    </row>
+    <row r="873" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C873" s="6"/>
+    </row>
+    <row r="874" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C874" s="6"/>
+    </row>
+    <row r="875" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C875" s="6"/>
+    </row>
+    <row r="876" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C876" s="6"/>
+    </row>
+    <row r="877" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C877" s="6"/>
+    </row>
+    <row r="878" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C878" s="6"/>
+    </row>
+    <row r="879" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C879" s="6"/>
+    </row>
+    <row r="880" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C880" s="6"/>
+    </row>
+    <row r="881" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C881" s="6"/>
+    </row>
+    <row r="882" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C882" s="6"/>
+    </row>
+    <row r="883" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C883" s="6"/>
+    </row>
+    <row r="884" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C884" s="6"/>
+    </row>
+    <row r="885" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C885" s="6"/>
+    </row>
+    <row r="886" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C886" s="6"/>
+    </row>
+    <row r="887" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C887" s="6"/>
+    </row>
+    <row r="888" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C888" s="6"/>
+    </row>
+    <row r="889" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C889" s="6"/>
+    </row>
+    <row r="890" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C890" s="6"/>
+    </row>
+    <row r="891" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C891" s="6"/>
+    </row>
+    <row r="892" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C892" s="6"/>
+    </row>
+    <row r="893" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C893" s="6"/>
+    </row>
+    <row r="894" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C894" s="6"/>
+    </row>
+    <row r="895" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C895" s="6"/>
+    </row>
+    <row r="896" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C896" s="6"/>
+    </row>
+    <row r="897" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C897" s="6"/>
+    </row>
+    <row r="898" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C898" s="6"/>
+    </row>
+    <row r="899" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C899" s="6"/>
+    </row>
+    <row r="900" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C900" s="6"/>
+    </row>
+    <row r="901" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C901" s="6"/>
+    </row>
+    <row r="902" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C902" s="6"/>
+    </row>
+    <row r="903" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C903" s="6"/>
+    </row>
+    <row r="904" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C904" s="6"/>
+    </row>
+    <row r="905" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C905" s="6"/>
+    </row>
+    <row r="906" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C906" s="6"/>
+    </row>
+    <row r="907" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C907" s="6"/>
+    </row>
+    <row r="908" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C908" s="6"/>
+    </row>
+    <row r="909" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C909" s="6"/>
+    </row>
+    <row r="910" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C910" s="6"/>
+    </row>
+    <row r="911" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C911" s="6"/>
+    </row>
+    <row r="912" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C912" s="6"/>
+    </row>
+    <row r="913" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C913" s="6"/>
+    </row>
+    <row r="914" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C914" s="6"/>
+    </row>
+    <row r="915" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C915" s="6"/>
+    </row>
+    <row r="916" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C916" s="6"/>
+    </row>
+    <row r="917" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C917" s="6"/>
+    </row>
+    <row r="918" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C918" s="6"/>
+    </row>
+    <row r="919" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C919" s="6"/>
+    </row>
+    <row r="920" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C920" s="6"/>
+    </row>
+    <row r="921" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C921" s="6"/>
+    </row>
+    <row r="922" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C922" s="6"/>
+    </row>
+    <row r="923" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C923" s="6"/>
+    </row>
+    <row r="924" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C924" s="6"/>
+    </row>
+    <row r="925" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C925" s="6"/>
+    </row>
+    <row r="926" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C926" s="6"/>
+    </row>
+    <row r="927" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C927" s="6"/>
+    </row>
+    <row r="928" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C928" s="6"/>
+    </row>
+    <row r="929" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C929" s="6"/>
+    </row>
+    <row r="930" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C930" s="6"/>
+    </row>
+    <row r="931" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C931" s="6"/>
+    </row>
+    <row r="932" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C932" s="6"/>
+    </row>
+    <row r="933" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C933" s="6"/>
+    </row>
+    <row r="934" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C934" s="6"/>
+    </row>
+    <row r="935" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C935" s="6"/>
+    </row>
+    <row r="936" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C936" s="6"/>
+    </row>
+    <row r="937" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C937" s="6"/>
+    </row>
+    <row r="938" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C938" s="6"/>
+    </row>
+    <row r="939" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C939" s="6"/>
+    </row>
+    <row r="940" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C940" s="6"/>
+    </row>
+    <row r="941" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C941" s="6"/>
+    </row>
+    <row r="942" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C942" s="6"/>
+    </row>
+    <row r="943" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C943" s="6"/>
+    </row>
+    <row r="944" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C944" s="6"/>
+    </row>
+    <row r="945" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C945" s="6"/>
+    </row>
+    <row r="946" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C946" s="6"/>
+    </row>
+    <row r="947" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C947" s="6"/>
+    </row>
+    <row r="948" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C948" s="6"/>
+    </row>
+    <row r="949" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C949" s="6"/>
+    </row>
+    <row r="950" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C950" s="6"/>
+    </row>
+    <row r="951" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C951" s="6"/>
+    </row>
+    <row r="952" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C952" s="6"/>
+    </row>
+    <row r="953" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C953" s="6"/>
+    </row>
+    <row r="954" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C954" s="6"/>
+    </row>
+    <row r="955" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C955" s="6"/>
+    </row>
+    <row r="956" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C956" s="6"/>
+    </row>
+    <row r="957" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C957" s="6"/>
+    </row>
+    <row r="958" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C958" s="6"/>
+    </row>
+    <row r="959" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C959" s="6"/>
+    </row>
+    <row r="960" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C960" s="6"/>
+    </row>
+    <row r="961" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C961" s="6"/>
+    </row>
+    <row r="962" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C962" s="6"/>
+    </row>
+    <row r="963" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C963" s="6"/>
+    </row>
+    <row r="964" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C964" s="6"/>
+    </row>
+    <row r="965" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C965" s="6"/>
+    </row>
+    <row r="966" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C966" s="6"/>
+    </row>
+    <row r="967" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C967" s="6"/>
+    </row>
+    <row r="968" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C968" s="6"/>
+    </row>
+    <row r="969" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C969" s="6"/>
+    </row>
+    <row r="970" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C970" s="6"/>
+    </row>
+    <row r="971" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C971" s="6"/>
+    </row>
+    <row r="972" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C972" s="6"/>
+    </row>
+    <row r="973" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C973" s="6"/>
+    </row>
+    <row r="974" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C974" s="6"/>
+    </row>
+    <row r="975" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C975" s="6"/>
+    </row>
+    <row r="976" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C976" s="6"/>
+    </row>
+    <row r="977" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C977" s="6"/>
+    </row>
+    <row r="978" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C978" s="6"/>
+    </row>
+    <row r="979" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C979" s="6"/>
+    </row>
+    <row r="980" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C980" s="6"/>
+    </row>
+    <row r="981" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C981" s="6"/>
+    </row>
+    <row r="982" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C982" s="6"/>
+    </row>
+    <row r="983" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C983" s="6"/>
+    </row>
+    <row r="984" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C984" s="6"/>
+    </row>
+    <row r="985" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C985" s="6"/>
+    </row>
+    <row r="986" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C986" s="6"/>
+    </row>
+    <row r="987" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C987" s="6"/>
+    </row>
+    <row r="988" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C988" s="6"/>
+    </row>
+    <row r="989" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C989" s="6"/>
+    </row>
+    <row r="990" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C990" s="6"/>
+    </row>
+    <row r="991" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C991" s="6"/>
+    </row>
+    <row r="992" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C992" s="6"/>
+    </row>
+    <row r="993" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C993" s="6"/>
+    </row>
+    <row r="994" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C994" s="6"/>
+    </row>
+    <row r="995" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C995" s="6"/>
+    </row>
+    <row r="996" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C996" s="6"/>
+    </row>
+    <row r="997" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C997" s="6"/>
+    </row>
+    <row r="998" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C998" s="6"/>
+    </row>
+    <row r="999" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C999" s="6"/>
+    </row>
+    <row r="1000" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1000" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1788,70 +4798,77 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="12">
         <v>2023</v>
       </c>
-      <c r="D1" s="12">
+      <c r="E1" s="12">
         <v>2022</v>
       </c>
-      <c r="E1" s="12">
+      <c r="F1" s="12">
         <v>2021</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
+      <c r="G1" s="12"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>5101</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="15">
+        <v>56</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="15">
         <v>27047</v>
       </c>
-      <c r="D2" s="15">
+      <c r="E2" s="15">
         <v>26000</v>
       </c>
-      <c r="E2" s="15">
+      <c r="F2" s="15">
         <v>30000</v>
       </c>
-      <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>4101</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="15">
-        <v>18031</v>
+        <v>57</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="D3" s="15">
         <v>18031</v>
@@ -1859,46 +4876,52 @@
       <c r="E3" s="15">
         <v>18031</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="15">
+        <v>18031</v>
+      </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="17">
-        <f>C2-C3</f>
-        <v>9016</v>
+        <v>59</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="D4" s="17">
         <f>D2-D3</f>
-        <v>7969</v>
+        <v>9016</v>
       </c>
       <c r="E4" s="17">
         <f>E2-E3</f>
+        <v>7969</v>
+      </c>
+      <c r="F4" s="17">
+        <f>F2-F3</f>
         <v>11969</v>
       </c>
-      <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4201</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="15">
-        <v>4569</v>
+        <v>60</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="D5" s="15">
         <v>4569</v>
@@ -1906,21 +4929,24 @@
       <c r="E5" s="15">
         <v>4569</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="15">
+        <v>4569</v>
+      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>4202</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="15">
-        <v>3057</v>
+        <v>61</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="D6" s="15">
         <v>3057</v>
@@ -1928,21 +4954,24 @@
       <c r="E6" s="15">
         <v>3057</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="15">
+        <v>3057</v>
+      </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>4204</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="D7" s="15">
         <v>0</v>
@@ -1950,47 +4979,52 @@
       <c r="E7" s="15">
         <v>0</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="15">
-        <f>C4-SUM(C5:C7)</f>
-        <v>1390</v>
+        <v>64</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="D8" s="15">
         <f>D4-SUM(D5:D7)</f>
-        <v>343</v>
+        <v>1390</v>
       </c>
       <c r="E8" s="15">
         <f>E4-SUM(E5:E7)</f>
+        <v>343</v>
+      </c>
+      <c r="F8" s="15">
+        <f>F4-SUM(F5:F7)</f>
         <v>4343</v>
       </c>
-      <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>5102</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="15">
-        <f>(482-41-3714)*(-1)</f>
-        <v>3273</v>
+        <v>65</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="D9" s="15">
         <f>(482-41-3714)*(-1)</f>
@@ -2000,46 +5034,53 @@
         <f>(482-41-3714)*(-1)</f>
         <v>3273</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="15">
+        <f>(482-41-3714)*(-1)</f>
+        <v>3273</v>
+      </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="15">
-        <f>C8-C9</f>
-        <v>-1883</v>
+        <v>67</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="D10" s="15">
         <f>D8-D9</f>
-        <v>-2930</v>
+        <v>-1883</v>
       </c>
       <c r="E10" s="15">
         <f>E8-E9</f>
+        <v>-2930</v>
+      </c>
+      <c r="F10" s="15">
+        <f>F8-F9</f>
         <v>1070</v>
       </c>
-      <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>4203</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="15">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="D11" s="15">
         <v>0</v>
@@ -2047,41 +5088,47 @@
       <c r="E11" s="15">
         <v>0</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="15">
-        <f>C10-C11</f>
-        <v>-1883</v>
+        <v>70</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="D12" s="15">
         <f>D10-D11</f>
-        <v>-2930</v>
+        <v>-1883</v>
       </c>
       <c r="E12" s="15">
         <f>E10-E11</f>
+        <v>-2930</v>
+      </c>
+      <c r="F12" s="15">
+        <f>F10-F11</f>
         <v>1070</v>
       </c>
-      <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -2089,11 +5136,12 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -2101,11 +5149,12 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -2113,11 +5162,12 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -2125,11 +5175,12 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -2137,11 +5188,12 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -2149,11 +5201,12 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
@@ -2161,11 +5214,12 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -2173,11 +5227,12 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -2185,11 +5240,12 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -2197,11 +5253,12 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
-    </row>
-    <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -2209,11 +5266,12 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
-    </row>
-    <row r="24" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -2221,11 +5279,12 @@
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
-    </row>
-    <row r="25" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -2233,11 +5292,12 @@
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
-    </row>
-    <row r="26" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -2245,11 +5305,12 @@
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
-    </row>
-    <row r="27" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -2257,11 +5318,12 @@
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
-    </row>
-    <row r="28" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -2269,11 +5331,12 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
-    </row>
-    <row r="29" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -2281,11 +5344,12 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
-    </row>
-    <row r="30" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
@@ -2293,11 +5357,12 @@
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
-    </row>
-    <row r="31" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K30" s="13"/>
+    </row>
+    <row r="31" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -2305,11 +5370,12 @@
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
-    </row>
-    <row r="32" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K31" s="13"/>
+    </row>
+    <row r="32" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -2317,11 +5383,12 @@
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
-    </row>
-    <row r="33" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K32" s="13"/>
+    </row>
+    <row r="33" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -2329,11 +5396,12 @@
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
-    </row>
-    <row r="34" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K33" s="13"/>
+    </row>
+    <row r="34" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
@@ -2341,11 +5409,12 @@
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
-    </row>
-    <row r="35" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K34" s="13"/>
+    </row>
+    <row r="35" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -2353,11 +5422,12 @@
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
-    </row>
-    <row r="36" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K35" s="13"/>
+    </row>
+    <row r="36" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="C36" s="29"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -2365,11 +5435,12 @@
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
-    </row>
-    <row r="37" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K36" s="13"/>
+    </row>
+    <row r="37" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="C37" s="29"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -2377,11 +5448,12 @@
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
-    </row>
-    <row r="38" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K37" s="13"/>
+    </row>
+    <row r="38" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+      <c r="C38" s="29"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
@@ -2389,11 +5461,12 @@
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
-    </row>
-    <row r="39" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+      <c r="C39" s="29"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
@@ -2401,11 +5474,12 @@
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
-    </row>
-    <row r="40" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K39" s="13"/>
+    </row>
+    <row r="40" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
+      <c r="C40" s="29"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -2413,11 +5487,12 @@
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
-    </row>
-    <row r="41" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K40" s="13"/>
+    </row>
+    <row r="41" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
+      <c r="C41" s="29"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
@@ -2425,11 +5500,12 @@
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
-    </row>
-    <row r="42" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K41" s="13"/>
+    </row>
+    <row r="42" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
+      <c r="C42" s="29"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
@@ -2437,11 +5513,12 @@
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
-    </row>
-    <row r="43" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K42" s="13"/>
+    </row>
+    <row r="43" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
+      <c r="C43" s="29"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
@@ -2449,11 +5526,12 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
-    </row>
-    <row r="44" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K43" s="13"/>
+    </row>
+    <row r="44" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
+      <c r="C44" s="29"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
@@ -2461,11 +5539,12 @@
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
-    </row>
-    <row r="45" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K44" s="13"/>
+    </row>
+    <row r="45" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
+      <c r="C45" s="29"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
@@ -2473,11 +5552,12 @@
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
-    </row>
-    <row r="46" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K45" s="13"/>
+    </row>
+    <row r="46" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
+      <c r="C46" s="29"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
@@ -2485,11 +5565,12 @@
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
-    </row>
-    <row r="47" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K46" s="13"/>
+    </row>
+    <row r="47" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
+      <c r="C47" s="29"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
@@ -2497,11 +5578,12 @@
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
-    </row>
-    <row r="48" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K47" s="13"/>
+    </row>
+    <row r="48" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
+      <c r="C48" s="29"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
@@ -2509,11 +5591,12 @@
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
-    </row>
-    <row r="49" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K48" s="13"/>
+    </row>
+    <row r="49" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
+      <c r="C49" s="29"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
@@ -2521,11 +5604,12 @@
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
-    </row>
-    <row r="50" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
+      <c r="C50" s="29"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
@@ -2533,11 +5617,12 @@
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
-    </row>
-    <row r="51" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K50" s="13"/>
+    </row>
+    <row r="51" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
+      <c r="C51" s="29"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
@@ -2545,11 +5630,12 @@
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
       <c r="J51" s="13"/>
-    </row>
-    <row r="52" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K51" s="13"/>
+    </row>
+    <row r="52" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
+      <c r="C52" s="29"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
@@ -2557,11 +5643,12 @@
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
-    </row>
-    <row r="53" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K52" s="13"/>
+    </row>
+    <row r="53" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
@@ -2569,11 +5656,12 @@
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
-    </row>
-    <row r="54" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K53" s="13"/>
+    </row>
+    <row r="54" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
+      <c r="C54" s="29"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
@@ -2581,11 +5669,12 @@
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
-    </row>
-    <row r="55" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K54" s="13"/>
+    </row>
+    <row r="55" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
+      <c r="C55" s="29"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
@@ -2593,11 +5682,12 @@
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
-    </row>
-    <row r="56" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K55" s="13"/>
+    </row>
+    <row r="56" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
+      <c r="C56" s="29"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
@@ -2605,11 +5695,12 @@
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
-    </row>
-    <row r="57" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K56" s="13"/>
+    </row>
+    <row r="57" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
+      <c r="C57" s="29"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
@@ -2617,11 +5708,12 @@
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
-    </row>
-    <row r="58" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K57" s="13"/>
+    </row>
+    <row r="58" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
+      <c r="C58" s="29"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
@@ -2629,11 +5721,12 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
-    </row>
-    <row r="59" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K58" s="13"/>
+    </row>
+    <row r="59" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
+      <c r="C59" s="29"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
@@ -2641,11 +5734,12 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
-    </row>
-    <row r="60" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K59" s="13"/>
+    </row>
+    <row r="60" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
+      <c r="C60" s="29"/>
       <c r="D60" s="13"/>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
@@ -2653,11 +5747,12 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
-    </row>
-    <row r="61" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K60" s="13"/>
+    </row>
+    <row r="61" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
+      <c r="C61" s="29"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
@@ -2665,11 +5760,12 @@
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
-    </row>
-    <row r="62" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K61" s="13"/>
+    </row>
+    <row r="62" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
+      <c r="C62" s="29"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
@@ -2677,11 +5773,12 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
-    </row>
-    <row r="63" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K62" s="13"/>
+    </row>
+    <row r="63" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
+      <c r="C63" s="29"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
@@ -2689,11 +5786,12 @@
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
-    </row>
-    <row r="64" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K63" s="13"/>
+    </row>
+    <row r="64" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
+      <c r="C64" s="29"/>
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
@@ -2701,11 +5799,12 @@
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
-    </row>
-    <row r="65" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K64" s="13"/>
+    </row>
+    <row r="65" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
+      <c r="C65" s="29"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
@@ -2713,11 +5812,12 @@
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
       <c r="J65" s="13"/>
-    </row>
-    <row r="66" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K65" s="13"/>
+    </row>
+    <row r="66" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
+      <c r="C66" s="29"/>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
@@ -2725,11 +5825,12 @@
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
-    </row>
-    <row r="67" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K66" s="13"/>
+    </row>
+    <row r="67" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
+      <c r="C67" s="29"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
@@ -2737,11 +5838,12 @@
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
-    </row>
-    <row r="68" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K67" s="13"/>
+    </row>
+    <row r="68" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
+      <c r="C68" s="29"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
@@ -2749,11 +5851,12 @@
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
       <c r="J68" s="13"/>
-    </row>
-    <row r="69" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K68" s="13"/>
+    </row>
+    <row r="69" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
+      <c r="C69" s="29"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
@@ -2761,11 +5864,12 @@
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
       <c r="J69" s="13"/>
-    </row>
-    <row r="70" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K69" s="13"/>
+    </row>
+    <row r="70" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
+      <c r="C70" s="29"/>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
@@ -2773,11 +5877,12 @@
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
-    </row>
-    <row r="71" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K70" s="13"/>
+    </row>
+    <row r="71" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
+      <c r="C71" s="29"/>
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
@@ -2785,11 +5890,12 @@
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
       <c r="J71" s="13"/>
-    </row>
-    <row r="72" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K71" s="13"/>
+    </row>
+    <row r="72" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
       <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
+      <c r="C72" s="29"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
@@ -2797,11 +5903,12 @@
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
       <c r="J72" s="13"/>
-    </row>
-    <row r="73" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K72" s="13"/>
+    </row>
+    <row r="73" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
+      <c r="C73" s="29"/>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
@@ -2809,11 +5916,12 @@
       <c r="H73" s="13"/>
       <c r="I73" s="13"/>
       <c r="J73" s="13"/>
-    </row>
-    <row r="74" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K73" s="13"/>
+    </row>
+    <row r="74" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
+      <c r="C74" s="29"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
@@ -2821,11 +5929,12 @@
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
-    </row>
-    <row r="75" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K74" s="13"/>
+    </row>
+    <row r="75" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
+      <c r="C75" s="29"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
@@ -2833,11 +5942,12 @@
       <c r="H75" s="13"/>
       <c r="I75" s="13"/>
       <c r="J75" s="13"/>
-    </row>
-    <row r="76" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K75" s="13"/>
+    </row>
+    <row r="76" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
+      <c r="C76" s="29"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
@@ -2845,11 +5955,12 @@
       <c r="H76" s="13"/>
       <c r="I76" s="13"/>
       <c r="J76" s="13"/>
-    </row>
-    <row r="77" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K76" s="13"/>
+    </row>
+    <row r="77" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="29"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
@@ -2857,11 +5968,12 @@
       <c r="H77" s="13"/>
       <c r="I77" s="13"/>
       <c r="J77" s="13"/>
-    </row>
-    <row r="78" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K77" s="13"/>
+    </row>
+    <row r="78" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="29"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
@@ -2869,11 +5981,12 @@
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
       <c r="J78" s="13"/>
-    </row>
-    <row r="79" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K78" s="13"/>
+    </row>
+    <row r="79" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="29"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
@@ -2881,11 +5994,12 @@
       <c r="H79" s="13"/>
       <c r="I79" s="13"/>
       <c r="J79" s="13"/>
-    </row>
-    <row r="80" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K79" s="13"/>
+    </row>
+    <row r="80" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="29"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
@@ -2893,11 +6007,12 @@
       <c r="H80" s="13"/>
       <c r="I80" s="13"/>
       <c r="J80" s="13"/>
-    </row>
-    <row r="81" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K80" s="13"/>
+    </row>
+    <row r="81" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="29"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
@@ -2905,11 +6020,12 @@
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
       <c r="J81" s="13"/>
-    </row>
-    <row r="82" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K81" s="13"/>
+    </row>
+    <row r="82" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
       <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="29"/>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
@@ -2917,11 +6033,12 @@
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
       <c r="J82" s="13"/>
-    </row>
-    <row r="83" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="K82" s="13"/>
+    </row>
+    <row r="83" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="29"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
@@ -2929,6 +6046,7 @@
       <c r="H83" s="13"/>
       <c r="I83" s="13"/>
       <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
